--- a/_doc/fonctionnement_mvc.xlsx
+++ b/_doc/fonctionnement_mvc.xlsx
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -295,9 +295,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -307,6 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,7 +589,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,16 +611,16 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -638,7 +637,7 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="11"/>
       <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
@@ -659,19 +658,19 @@
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="13"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
